--- a/biology/Médecine/Protocole_de_soins/Protocole_de_soins.xlsx
+++ b/biology/Médecine/Protocole_de_soins/Protocole_de_soins.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un protocole de soins est la pratique d'un acte médical, paramédical ou psychologique, établie d'après la littérature scientifique, une expérience clinique partagée, ou encore des recommandations d'un consensus de professionnels.
 C'est également le nom du document qui atteste cette pratique.
